--- a/Data Modeling.xlsx
+++ b/Data Modeling.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sales 2019" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="Sales 2017" sheetId="3" r:id="rId3"/>
+    <sheet name="product_data" sheetId="4" r:id="rId4"/>
+    <sheet name="Location_data" sheetId="5" r:id="rId5"/>
+    <sheet name="Customer_Data" sheetId="6" r:id="rId6"/>
+    <sheet name="salespeople_data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="275">
   <si>
     <t>Order ID</t>
   </si>
@@ -340,13 +344,514 @@
   </si>
   <si>
     <t>C1514</t>
+  </si>
+  <si>
+    <t>OID2017</t>
+  </si>
+  <si>
+    <t>PID3000</t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>C2001</t>
+  </si>
+  <si>
+    <t>OID2018</t>
+  </si>
+  <si>
+    <t>PID3001</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>C2002</t>
+  </si>
+  <si>
+    <t>OID2021</t>
+  </si>
+  <si>
+    <t>PID3002</t>
+  </si>
+  <si>
+    <t>A212</t>
+  </si>
+  <si>
+    <t>C2003</t>
+  </si>
+  <si>
+    <t>OID2030</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>EMP1023</t>
+  </si>
+  <si>
+    <t>C2004</t>
+  </si>
+  <si>
+    <t>OID2042</t>
+  </si>
+  <si>
+    <t>PID3003</t>
+  </si>
+  <si>
+    <t>A214</t>
+  </si>
+  <si>
+    <t>EMP1024</t>
+  </si>
+  <si>
+    <t>C2005</t>
+  </si>
+  <si>
+    <t>OID2055</t>
+  </si>
+  <si>
+    <t>A215</t>
+  </si>
+  <si>
+    <t>C2006</t>
+  </si>
+  <si>
+    <t>OID2061</t>
+  </si>
+  <si>
+    <t>A216</t>
+  </si>
+  <si>
+    <t>C2007</t>
+  </si>
+  <si>
+    <t>OID2073</t>
+  </si>
+  <si>
+    <t>A217</t>
+  </si>
+  <si>
+    <t>EMP1027</t>
+  </si>
+  <si>
+    <t>C2008</t>
+  </si>
+  <si>
+    <t>OID2081</t>
+  </si>
+  <si>
+    <t>A218</t>
+  </si>
+  <si>
+    <t>EMP1028</t>
+  </si>
+  <si>
+    <t>C2009</t>
+  </si>
+  <si>
+    <t>OID2087</t>
+  </si>
+  <si>
+    <t>A219</t>
+  </si>
+  <si>
+    <t>EMP1029</t>
+  </si>
+  <si>
+    <t>C2010</t>
+  </si>
+  <si>
+    <t>OID3017</t>
+  </si>
+  <si>
+    <t>PID4000</t>
+  </si>
+  <si>
+    <t>A310</t>
+  </si>
+  <si>
+    <t>EMP2030</t>
+  </si>
+  <si>
+    <t>C3001</t>
+  </si>
+  <si>
+    <t>OID3018</t>
+  </si>
+  <si>
+    <t>PID4001</t>
+  </si>
+  <si>
+    <t>A311</t>
+  </si>
+  <si>
+    <t>EMP2031</t>
+  </si>
+  <si>
+    <t>C3002</t>
+  </si>
+  <si>
+    <t>OID3021</t>
+  </si>
+  <si>
+    <t>PID4002</t>
+  </si>
+  <si>
+    <t>A312</t>
+  </si>
+  <si>
+    <t>EMP2032</t>
+  </si>
+  <si>
+    <t>C3003</t>
+  </si>
+  <si>
+    <t>OID3030</t>
+  </si>
+  <si>
+    <t>A313</t>
+  </si>
+  <si>
+    <t>EMP2033</t>
+  </si>
+  <si>
+    <t>C3004</t>
+  </si>
+  <si>
+    <t>OID3042</t>
+  </si>
+  <si>
+    <t>PID4003</t>
+  </si>
+  <si>
+    <t>A314</t>
+  </si>
+  <si>
+    <t>EMP2034</t>
+  </si>
+  <si>
+    <t>C3005</t>
+  </si>
+  <si>
+    <t>OID3055</t>
+  </si>
+  <si>
+    <t>A315</t>
+  </si>
+  <si>
+    <t>EMP2035</t>
+  </si>
+  <si>
+    <t>C3006</t>
+  </si>
+  <si>
+    <t>OID3061</t>
+  </si>
+  <si>
+    <t>A316</t>
+  </si>
+  <si>
+    <t>EMP2036</t>
+  </si>
+  <si>
+    <t>C3007</t>
+  </si>
+  <si>
+    <t>OID3073</t>
+  </si>
+  <si>
+    <t>A317</t>
+  </si>
+  <si>
+    <t>EMP2037</t>
+  </si>
+  <si>
+    <t>C3008</t>
+  </si>
+  <si>
+    <t>OID3081</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>EMP2038</t>
+  </si>
+  <si>
+    <t>C3009</t>
+  </si>
+  <si>
+    <t>OID3087</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>EMP2039</t>
+  </si>
+  <si>
+    <t>C3010</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Stock Availability</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Description of Product A</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>Description of Product B</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>Description of Product C</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>Product D</t>
+  </si>
+  <si>
+    <t>Category 4</t>
+  </si>
+  <si>
+    <t>Description of Product D</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Location X</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Street 123, XYZ</t>
+  </si>
+  <si>
+    <t>Location Y</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Street 234, ABC</t>
+  </si>
+  <si>
+    <t>Location Z</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Street 345, DEF</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Customer 3</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Customer 4</t>
+  </si>
+  <si>
+    <t>Customer 5</t>
+  </si>
+  <si>
+    <t>Customer 6</t>
+  </si>
+  <si>
+    <t>Customer 7</t>
+  </si>
+  <si>
+    <t>Customer 8</t>
+  </si>
+  <si>
+    <t>Customer 9</t>
+  </si>
+  <si>
+    <t>Customer 10</t>
+  </si>
+  <si>
+    <t>Salesperson Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>alice.johnson@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111111</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>bob.smith@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111112</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>charlie.brown@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111113</t>
+  </si>
+  <si>
+    <t>David Williams</t>
+  </si>
+  <si>
+    <t>david.williams@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111114</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>emily.davis@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111115</t>
+  </si>
+  <si>
+    <t>Frank Miller</t>
+  </si>
+  <si>
+    <t>frank.miller@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111116</t>
+  </si>
+  <si>
+    <t>Grace Lee</t>
+  </si>
+  <si>
+    <t>grace.lee@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111117</t>
+  </si>
+  <si>
+    <t>Hank Clark</t>
+  </si>
+  <si>
+    <t>hank.clark@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111118</t>
+  </si>
+  <si>
+    <t>Irene Scott</t>
+  </si>
+  <si>
+    <t>irene.scott@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111119</t>
+  </si>
+  <si>
+    <t>Jack White</t>
+  </si>
+  <si>
+    <t>jack.white@xyz.com</t>
+  </si>
+  <si>
+    <t>123-1111120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +862,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -383,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,11 +907,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="59">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -427,6 +959,114 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -444,6 +1084,119 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,17 +1204,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:H29"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Order ID" dataDxfId="9"/>
-    <tableColumn id="2" name="Product ID" dataDxfId="8"/>
-    <tableColumn id="3" name="Location ID" dataDxfId="7"/>
-    <tableColumn id="4" name="Sales Person ID" dataDxfId="6"/>
-    <tableColumn id="5" name="Customer ID" dataDxfId="5"/>
-    <tableColumn id="6" name="Purchase Date" dataDxfId="4"/>
-    <tableColumn id="7" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="8" name="Price" dataDxfId="2"/>
+    <tableColumn id="1" name="Order ID" dataDxfId="56"/>
+    <tableColumn id="2" name="Product ID" dataDxfId="55"/>
+    <tableColumn id="3" name="Location ID" dataDxfId="54"/>
+    <tableColumn id="4" name="Sales Person ID" dataDxfId="53"/>
+    <tableColumn id="5" name="Customer ID" dataDxfId="52"/>
+    <tableColumn id="6" name="Purchase Date" dataDxfId="51"/>
+    <tableColumn id="7" name="Quantity" dataDxfId="50"/>
+    <tableColumn id="8" name="Price" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H11" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:H11"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Order ID" dataDxfId="46"/>
+    <tableColumn id="2" name="Product ID" dataDxfId="45"/>
+    <tableColumn id="3" name="Location ID" dataDxfId="44"/>
+    <tableColumn id="4" name="Sales Person ID" dataDxfId="43"/>
+    <tableColumn id="5" name="Customer ID" dataDxfId="42"/>
+    <tableColumn id="6" name="Purchase Date" dataDxfId="41"/>
+    <tableColumn id="7" name="Quantity" dataDxfId="40"/>
+    <tableColumn id="8" name="Price" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:H11"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Order ID" dataDxfId="36"/>
+    <tableColumn id="2" name="Product ID" dataDxfId="35"/>
+    <tableColumn id="3" name="Location ID" dataDxfId="34"/>
+    <tableColumn id="4" name="Sales Person ID" dataDxfId="33"/>
+    <tableColumn id="5" name="Customer ID" dataDxfId="32"/>
+    <tableColumn id="6" name="Purchase Date" dataDxfId="31"/>
+    <tableColumn id="7" name="Quantity" dataDxfId="30"/>
+    <tableColumn id="8" name="Price" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Product ID" dataDxfId="26"/>
+    <tableColumn id="2" name="Product Name" dataDxfId="25"/>
+    <tableColumn id="3" name="Product Category" dataDxfId="24"/>
+    <tableColumn id="4" name="Product Description" dataDxfId="23"/>
+    <tableColumn id="5" name="Price" dataDxfId="22"/>
+    <tableColumn id="6" name="Stock Availability" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Location ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Location Name" dataDxfId="17"/>
+    <tableColumn id="3" name="Region" dataDxfId="16"/>
+    <tableColumn id="4" name="Country" dataDxfId="15"/>
+    <tableColumn id="5" name="Address" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Customer ID" dataDxfId="11"/>
+    <tableColumn id="2" name="Customer Name" dataDxfId="10"/>
+    <tableColumn id="3" name="Industry" dataDxfId="9"/>
+    <tableColumn id="4" name="Location" dataDxfId="8"/>
+    <tableColumn id="5" name="Contact Number" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sales Person ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Salesperson Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Department" dataDxfId="2"/>
+    <tableColumn id="4" name="Email" dataDxfId="1"/>
+    <tableColumn id="5" name="Phone Number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -755,7 +1599,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H29"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +1613,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>42846</v>
+        <v>43576</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -821,7 +1665,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -838,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3">
-        <v>42967</v>
+        <v>43697</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -847,7 +1691,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -864,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3">
-        <v>42788</v>
+        <v>43518</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -873,7 +1717,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -890,7 +1734,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="3">
-        <v>42784</v>
+        <v>43514</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -899,7 +1743,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -916,7 +1760,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="3">
-        <v>42843</v>
+        <v>43573</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -925,7 +1769,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -942,7 +1786,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="3">
-        <v>43013</v>
+        <v>43743</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -951,7 +1795,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -968,7 +1812,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="3">
-        <v>43042</v>
+        <v>43772</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -977,7 +1821,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="3">
-        <v>43052</v>
+        <v>43782</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1003,7 +1847,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1020,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="3">
-        <v>43038</v>
+        <v>43768</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
@@ -1029,7 +1873,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1890,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3">
-        <v>42939</v>
+        <v>43669</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -1055,7 +1899,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="3">
-        <v>42861</v>
+        <v>43591</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1081,7 +1925,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1098,7 +1942,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="3">
-        <v>42881</v>
+        <v>43611</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1107,7 +1951,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1124,7 +1968,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="3">
-        <v>42990</v>
+        <v>43720</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1133,7 +1977,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1150,7 +1994,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="3">
-        <v>42929</v>
+        <v>43659</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1159,7 +2003,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +2020,7 @@
         <v>63</v>
       </c>
       <c r="F16" s="3">
-        <v>42817</v>
+        <v>43547</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1185,7 +2029,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1202,7 +2046,7 @@
         <v>67</v>
       </c>
       <c r="F17" s="3">
-        <v>43068</v>
+        <v>43798</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
@@ -1211,7 +2055,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -1228,7 +2072,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="3">
-        <v>43042</v>
+        <v>43772</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1237,7 +2081,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1254,7 +2098,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="3">
-        <v>42964</v>
+        <v>43694</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -1263,7 +2107,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -1280,7 +2124,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="3">
-        <v>43006</v>
+        <v>43736</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1289,7 +2133,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1306,7 +2150,7 @@
         <v>82</v>
       </c>
       <c r="F21" s="3">
-        <v>42769</v>
+        <v>43499</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1315,7 +2159,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -1332,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="F22" s="3">
-        <v>42950</v>
+        <v>43680</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1341,7 +2185,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1358,7 +2202,7 @@
         <v>89</v>
       </c>
       <c r="F23" s="3">
-        <v>42995</v>
+        <v>43725</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1367,7 +2211,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -1384,7 +2228,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3">
-        <v>42796</v>
+        <v>43526</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -1393,7 +2237,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -1410,7 +2254,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="3">
-        <v>42856</v>
+        <v>43586</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1419,7 +2263,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -1436,7 +2280,7 @@
         <v>99</v>
       </c>
       <c r="F26" s="3">
-        <v>42761</v>
+        <v>43491</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -1445,7 +2289,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -1462,7 +2306,7 @@
         <v>97</v>
       </c>
       <c r="F27" s="3">
-        <v>43094</v>
+        <v>43824</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
@@ -1471,7 +2315,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
@@ -1488,7 +2332,7 @@
         <v>103</v>
       </c>
       <c r="F28" s="3">
-        <v>43098</v>
+        <v>43828</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -1497,7 +2341,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
@@ -1514,7 +2358,7 @@
         <v>107</v>
       </c>
       <c r="F29" s="3">
-        <v>43043</v>
+        <v>43773</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -1534,24 +2378,1390 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42750</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42786</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42806</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42850</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42865</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="3">
+        <v>42904</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42945</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42982</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43049</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43084</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
+      <c r="A14" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43122</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43145</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43177</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43215</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43230</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43269</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43310</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43347</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43414</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43449</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="2">
+        <v>700</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="2">
+        <v>800</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9876543211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9876543212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9876543213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9876543214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9876543215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9876543216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9876543217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9876543218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9876543219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>